--- a/Squads/E1/Sunderland_Leeds_squad.xlsx
+++ b/Squads/E1/Sunderland_Leeds_squad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="203">
   <si>
     <t>Rk</t>
   </si>
@@ -110,132 +110,147 @@
     <t>npxG p90</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>204</t>
+    <t>239</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>402</t>
   </si>
   <si>
     <t>415</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>475</t>
+    <t>438</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>491</t>
   </si>
   <si>
     <t>Trai Hume</t>
   </si>
   <si>
+    <t>Jayden Bogle</t>
+  </si>
+  <si>
+    <t>Wilfried Gnonto</t>
+  </si>
+  <si>
+    <t>Joe Rodon</t>
+  </si>
+  <si>
+    <t>Jobe Bellingham</t>
+  </si>
+  <si>
     <t>Daniel Neil</t>
   </si>
   <si>
@@ -248,25 +263,22 @@
     <t>Ethan Ampadu</t>
   </si>
   <si>
-    <t>Jayden Bogle</t>
-  </si>
-  <si>
     <t>Junior Firpo</t>
   </si>
   <si>
-    <t>Wilfried Gnonto</t>
-  </si>
-  <si>
     <t>Ilia Gruev</t>
   </si>
   <si>
-    <t>Joe Rodon</t>
+    <t>Pascal Struijk</t>
   </si>
   <si>
     <t>Ajibola Alese</t>
   </si>
   <si>
-    <t>Jobe Bellingham</t>
+    <t>Dennis Cirkin</t>
+  </si>
+  <si>
+    <t>Chris Mepham</t>
   </si>
   <si>
     <t>Romaine Mundle</t>
@@ -278,7 +290,7 @@
     <t>Daniel James</t>
   </si>
   <si>
-    <t>Pascal Struijk</t>
+    <t>Joe Rothwell</t>
   </si>
   <si>
     <t>Adil Aouchiche</t>
@@ -290,9 +302,6 @@
     <t>Alan Browne</t>
   </si>
   <si>
-    <t>Dennis Cirkin</t>
-  </si>
-  <si>
     <t>Jack Clarke</t>
   </si>
   <si>
@@ -302,9 +311,6 @@
     <t>Eliezer Mayenda</t>
   </si>
   <si>
-    <t>Chris Mepham</t>
-  </si>
-  <si>
     <t>Luke O'Nien</t>
   </si>
   <si>
@@ -317,6 +323,9 @@
     <t>Nectarios Triantis</t>
   </si>
   <si>
+    <t>Tom Watson</t>
+  </si>
+  <si>
     <t>Brenden Aaronson</t>
   </si>
   <si>
@@ -341,9 +350,6 @@
     <t>Largie Ramazani</t>
   </si>
   <si>
-    <t>Joe Rothwell</t>
-  </si>
-  <si>
     <t>Georginio Rutter</t>
   </si>
   <si>
@@ -362,24 +368,24 @@
     <t>eng ENG</t>
   </si>
   <si>
+    <t>it ITA</t>
+  </si>
+  <si>
     <t>wls WAL</t>
   </si>
   <si>
     <t>do DOM</t>
   </si>
   <si>
-    <t>it ITA</t>
-  </si>
-  <si>
     <t>bg BUL</t>
   </si>
   <si>
+    <t>nl NED</t>
+  </si>
+  <si>
     <t>ua UKR</t>
   </si>
   <si>
-    <t>nl NED</t>
-  </si>
-  <si>
     <t>fr FRA</t>
   </si>
   <si>
@@ -410,202 +416,208 @@
     <t>DF</t>
   </si>
   <si>
+    <t>FW</t>
+  </si>
+  <si>
     <t>MF</t>
   </si>
   <si>
     <t>FW,MF</t>
   </si>
   <si>
-    <t>FW</t>
+    <t>MF,FW</t>
   </si>
   <si>
     <t>GK</t>
   </si>
   <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>MF,DF</t>
-  </si>
-  <si>
     <t>Sunderland</t>
   </si>
   <si>
     <t>Leeds</t>
   </si>
   <si>
-    <t>22-191</t>
-  </si>
-  <si>
-    <t>23-060</t>
-  </si>
-  <si>
-    <t>17-099</t>
-  </si>
-  <si>
-    <t>27-233</t>
-  </si>
-  <si>
-    <t>24-011</t>
-  </si>
-  <si>
-    <t>24-060</t>
-  </si>
-  <si>
-    <t>28-034</t>
-  </si>
-  <si>
-    <t>20-325</t>
-  </si>
-  <si>
-    <t>24-142</t>
-  </si>
-  <si>
-    <t>26-339</t>
-  </si>
-  <si>
-    <t>23-252</t>
-  </si>
-  <si>
-    <t>19-002</t>
-  </si>
-  <si>
-    <t>21-154</t>
-  </si>
-  <si>
-    <t>25-336</t>
-  </si>
-  <si>
-    <t>26-320</t>
-  </si>
-  <si>
-    <t>25-045</t>
-  </si>
-  <si>
-    <t>22-072</t>
-  </si>
-  <si>
-    <t>25-003</t>
-  </si>
-  <si>
-    <t>29-163</t>
-  </si>
-  <si>
-    <t>22-172</t>
-  </si>
-  <si>
-    <t>23-307</t>
-  </si>
-  <si>
-    <t>24-029</t>
-  </si>
-  <si>
-    <t>19-140</t>
-  </si>
-  <si>
-    <t>26-325</t>
-  </si>
-  <si>
-    <t>29-309</t>
-  </si>
-  <si>
-    <t>24-138</t>
-  </si>
-  <si>
-    <t>24-229</t>
-  </si>
-  <si>
-    <t>21-137</t>
-  </si>
-  <si>
-    <t>23-339</t>
-  </si>
-  <si>
-    <t>31-020</t>
-  </si>
-  <si>
-    <t>31-009</t>
-  </si>
-  <si>
-    <t>22-144</t>
-  </si>
-  <si>
-    <t>20-342</t>
-  </si>
-  <si>
-    <t>24-207</t>
-  </si>
-  <si>
-    <t>25-054</t>
-  </si>
-  <si>
-    <t>23-211</t>
-  </si>
-  <si>
-    <t>29-258</t>
-  </si>
-  <si>
-    <t>22-158</t>
-  </si>
-  <si>
-    <t>24-293</t>
-  </si>
-  <si>
-    <t>25-063</t>
-  </si>
-  <si>
-    <t>26-015</t>
+    <t>22-199</t>
+  </si>
+  <si>
+    <t>24-068</t>
+  </si>
+  <si>
+    <t>20-333</t>
+  </si>
+  <si>
+    <t>26-347</t>
+  </si>
+  <si>
+    <t>19-010</t>
+  </si>
+  <si>
+    <t>23-068</t>
+  </si>
+  <si>
+    <t>17-107</t>
+  </si>
+  <si>
+    <t>27-241</t>
+  </si>
+  <si>
+    <t>24-019</t>
+  </si>
+  <si>
+    <t>28-042</t>
+  </si>
+  <si>
+    <t>24-150</t>
+  </si>
+  <si>
+    <t>25-053</t>
+  </si>
+  <si>
+    <t>23-260</t>
+  </si>
+  <si>
+    <t>22-180</t>
+  </si>
+  <si>
+    <t>26-333</t>
+  </si>
+  <si>
+    <t>21-162</t>
+  </si>
+  <si>
+    <t>25-344</t>
+  </si>
+  <si>
+    <t>26-328</t>
+  </si>
+  <si>
+    <t>29-266</t>
+  </si>
+  <si>
+    <t>22-080</t>
+  </si>
+  <si>
+    <t>25-011</t>
+  </si>
+  <si>
+    <t>29-171</t>
+  </si>
+  <si>
+    <t>23-315</t>
+  </si>
+  <si>
+    <t>24-037</t>
+  </si>
+  <si>
+    <t>19-148</t>
+  </si>
+  <si>
+    <t>29-317</t>
+  </si>
+  <si>
+    <t>24-146</t>
+  </si>
+  <si>
+    <t>24-237</t>
+  </si>
+  <si>
+    <t>21-145</t>
+  </si>
+  <si>
+    <t>18-178</t>
+  </si>
+  <si>
+    <t>23-347</t>
+  </si>
+  <si>
+    <t>31-028</t>
+  </si>
+  <si>
+    <t>31-017</t>
+  </si>
+  <si>
+    <t>22-152</t>
+  </si>
+  <si>
+    <t>20-350</t>
+  </si>
+  <si>
+    <t>24-215</t>
+  </si>
+  <si>
+    <t>25-062</t>
+  </si>
+  <si>
+    <t>23-219</t>
+  </si>
+  <si>
+    <t>22-166</t>
+  </si>
+  <si>
+    <t>24-301</t>
+  </si>
+  <si>
+    <t>25-071</t>
+  </si>
+  <si>
+    <t>26-023</t>
   </si>
   <si>
     <t>2002</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
     <t>2007</t>
   </si>
   <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>1996</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2005</t>
+    <t>1999</t>
   </si>
   <si>
     <t>1998</t>
   </si>
   <si>
-    <t>1999</t>
-  </si>
-  <si>
     <t>1995</t>
   </si>
   <si>
     <t>1994</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>1993</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>2</t>
@@ -763,37 +775,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>230.0</v>
+        <v>239.0</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J2" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K2" t="n">
-        <v>540.0</v>
+        <v>720.0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -826,19 +838,19 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="AB2" t="n">
         <v>0.0</v>
@@ -864,49 +876,49 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>344.0</v>
+        <v>60.0</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J3" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K3" t="n">
-        <v>444.0</v>
+        <v>705.0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0</v>
@@ -915,49 +927,49 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.0</v>
+        <v>36.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.0</v>
+        <v>48.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0</v>
+        <v>0.13</v>
       </c>
       <c r="AC3" t="n">
         <v>0.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0</v>
+        <v>0.13</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0</v>
+        <v>0.13</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="4">
@@ -965,49 +977,49 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>406.0</v>
+        <v>202.0</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J4" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K4" t="n">
-        <v>410.0</v>
+        <v>663.0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.6</v>
+        <v>7.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
@@ -1016,49 +1028,49 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.0</v>
+        <v>43.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>28.0</v>
+        <v>62.0</v>
       </c>
       <c r="AB4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AG4" t="n">
         <v>0.22</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -1066,100 +1078,100 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>411.0</v>
+        <v>429.0</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J5" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K5" t="n">
-        <v>492.0</v>
+        <v>715.0</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.0</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>0.0</v>
       </c>
       <c r="X5" t="n">
-        <v>2.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>29.0</v>
+        <v>43.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.37</v>
+        <v>0.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
       <c r="AE5" t="n">
         <v>0.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.37</v>
+        <v>0.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -1167,49 +1179,49 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0</v>
+        <v>44.0</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
         <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K6" t="n">
-        <v>517.0</v>
+        <v>720.0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.7</v>
+        <v>8.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0</v>
@@ -1230,37 +1242,37 @@
         <v>0.4</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -1268,37 +1280,37 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>58.0</v>
+        <v>355.0</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
         <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="J7" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K7" t="n">
-        <v>525.0</v>
+        <v>624.0</v>
       </c>
       <c r="L7" t="n">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
@@ -1322,28 +1334,28 @@
         <v>2.0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="X7" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>37.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB7" t="n">
         <v>0.0</v>
@@ -1361,7 +1373,7 @@
         <v>0.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -1369,49 +1381,49 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>169.0</v>
+        <v>419.0</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
         <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K8" t="n">
-        <v>527.0</v>
+        <v>573.0</v>
       </c>
       <c r="L8" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" t="n">
         <v>1.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0</v>
@@ -1426,43 +1438,43 @@
         <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="X8" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1470,55 +1482,55 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>194.0</v>
+        <v>425.0</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
         <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J9" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K9" t="n">
-        <v>500.0</v>
+        <v>638.0</v>
       </c>
       <c r="L9" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S9" t="n">
         <v>2.0</v>
@@ -1527,43 +1539,43 @@
         <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>2.0</v>
+        <v>2.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0</v>
+        <v>0.42</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.18</v>
+        <v>0.56</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10">
@@ -1571,37 +1583,37 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>204.0</v>
+        <v>13.0</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I10" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="J10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K10" t="n">
-        <v>515.0</v>
+        <v>557.0</v>
       </c>
       <c r="L10" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
@@ -1634,19 +1646,19 @@
         <v>0.4</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB10" t="n">
         <v>0.0</v>
@@ -1672,46 +1684,46 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>415.0</v>
+        <v>176.0</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J11" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K11" t="n">
-        <v>535.0</v>
+        <v>690.0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.0</v>
@@ -1729,43 +1741,43 @@
         <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0</v>
+        <v>1.6</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.0</v>
+        <v>71.0</v>
       </c>
       <c r="AB11" t="n">
         <v>0.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0</v>
+        <v>0.26</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0</v>
+        <v>0.26</v>
       </c>
       <c r="AE11" t="n">
         <v>0.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0</v>
+        <v>0.26</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -1773,82 +1785,82 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>7.0</v>
+        <v>212.0</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y12" t="n">
         <v>3.0</v>
       </c>
-      <c r="K12" t="n">
-        <v>270.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Z12" t="n">
-        <v>5.0</v>
+        <v>36.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB12" t="n">
         <v>0.0</v>
@@ -1866,7 +1878,7 @@
         <v>0.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -1874,43 +1886,43 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>42.0</v>
+        <v>482.0</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J13" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K13" t="n">
-        <v>540.0</v>
+        <v>720.0</v>
       </c>
       <c r="L13" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O13" t="n">
         <v>1.0</v>
@@ -1919,55 +1931,55 @@
         <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="X13" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.0</v>
+        <v>47.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="AE13" t="n">
         <v>0.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14">
@@ -1975,49 +1987,49 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>337.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
         <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J14" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K14" t="n">
-        <v>347.0</v>
+        <v>270.0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.9</v>
+        <v>3.0</v>
       </c>
       <c r="M14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
       </c>
       <c r="O14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0</v>
@@ -2032,43 +2044,43 @@
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.78</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" t="n">
         <v>0.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.78</v>
+        <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.78</v>
+        <v>0.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.78</v>
+        <v>0.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -2076,100 +2088,100 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>423.0</v>
+        <v>100.0</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I15" t="s">
         <v>197</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="K15" t="n">
-        <v>47.0</v>
+        <v>720.0</v>
       </c>
       <c r="L15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0.5</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V15" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0</v>
+        <v>1.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="16">
@@ -2177,49 +2189,49 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>245.0</v>
+        <v>332.0</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
         <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J16" t="n">
         <v>3.0</v>
       </c>
       <c r="K16" t="n">
-        <v>223.0</v>
+        <v>270.0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
@@ -2234,43 +2246,43 @@
         <v>0.0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W16" t="n">
         <v>0.1</v>
       </c>
       <c r="X16" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" t="n">
         <v>0.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17">
@@ -2278,55 +2290,55 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>466.0</v>
+        <v>348.0</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
         <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J17" t="n">
         <v>6.0</v>
       </c>
       <c r="K17" t="n">
-        <v>540.0</v>
+        <v>521.0</v>
       </c>
       <c r="L17" t="n">
-        <v>6.0</v>
+        <v>5.8</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" t="n">
         <v>1.0</v>
@@ -2335,43 +2347,43 @@
         <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="X17" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.0</v>
+        <v>39.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>39.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.0</v>
+        <v>52.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.17</v>
+        <v>0.52</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.17</v>
+        <v>0.52</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0</v>
+        <v>0.52</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0</v>
+        <v>0.52</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
@@ -2379,37 +2391,37 @@
         <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>16.0</v>
+        <v>437.0</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H18" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="J18" t="n">
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>13.0</v>
+        <v>70.0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
@@ -2430,7 +2442,7 @@
         <v>0.0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
@@ -2448,13 +2460,13 @@
         <v>0.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB18" t="n">
         <v>0.0</v>
@@ -2480,49 +2492,49 @@
         <v>49</v>
       </c>
       <c r="B19" t="n">
-        <v>28.0</v>
+        <v>254.0</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K19" t="n">
-        <v>182.0</v>
+        <v>223.0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q19" t="n">
         <v>0.0</v>
@@ -2531,49 +2543,49 @@
         <v>0.0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="W19" t="n">
         <v>0.1</v>
       </c>
       <c r="X19" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.07</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="20">
@@ -2581,100 +2593,100 @@
         <v>50</v>
       </c>
       <c r="B20" t="n">
-        <v>71.0</v>
+        <v>434.0</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I20" t="s">
         <v>197</v>
       </c>
       <c r="J20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y20" t="n">
         <v>2.0</v>
       </c>
-      <c r="K20" t="n">
-        <v>220.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Z20" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21">
@@ -2682,49 +2694,49 @@
         <v>51</v>
       </c>
       <c r="B21" t="n">
-        <v>95.0</v>
+        <v>17.0</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="J21" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>540.0</v>
+        <v>13.0</v>
       </c>
       <c r="L21" t="n">
-        <v>6.0</v>
+        <v>0.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" t="n">
         <v>0.0</v>
@@ -2739,43 +2751,43 @@
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -2783,49 +2795,49 @@
         <v>52</v>
       </c>
       <c r="B22" t="n">
-        <v>98.0</v>
+        <v>30.0</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J22" t="n">
         <v>2.0</v>
       </c>
       <c r="K22" t="n">
-        <v>179.0</v>
+        <v>182.0</v>
       </c>
       <c r="L22" t="n">
         <v>2.0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
@@ -2846,37 +2858,37 @@
         <v>0.1</v>
       </c>
       <c r="W22" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="X22" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.01</v>
+        <v>0.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.01</v>
+        <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="23">
@@ -2884,49 +2896,49 @@
         <v>53</v>
       </c>
       <c r="B23" t="n">
-        <v>239.0</v>
+        <v>74.0</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K23" t="n">
-        <v>40.0</v>
+        <v>237.0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q23" t="n">
         <v>0.0</v>
@@ -2941,43 +2953,43 @@
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1</v>
+        <v>1.0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1</v>
+        <v>1.0</v>
       </c>
       <c r="W23" t="n">
         <v>0.1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="24">
@@ -2985,100 +2997,100 @@
         <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>302.0</v>
+        <v>103.0</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
         <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="J24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y24" t="n">
         <v>6.0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>481.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8.0</v>
       </c>
       <c r="Z24" t="n">
         <v>3.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.75</v>
+        <v>1.01</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.75</v>
+        <v>1.01</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
@@ -3086,49 +3098,49 @@
         <v>55</v>
       </c>
       <c r="B25" t="n">
-        <v>321.0</v>
+        <v>248.0</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" t="s">
         <v>184</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="J25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K25" t="n">
-        <v>90.0</v>
+        <v>197.0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.0</v>
+        <v>2.2</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q25" t="n">
         <v>0.0</v>
@@ -3143,43 +3155,43 @@
         <v>0.0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
         <v>0.1</v>
       </c>
       <c r="X25" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0</v>
+        <v>0.91</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0</v>
+        <v>0.91</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0</v>
+        <v>0.91</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.0</v>
+        <v>0.91</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="26">
@@ -3187,46 +3199,46 @@
         <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>360.0</v>
+        <v>312.0</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J26" t="n">
         <v>6.0</v>
       </c>
       <c r="K26" t="n">
-        <v>540.0</v>
+        <v>481.0</v>
       </c>
       <c r="L26" t="n">
-        <v>6.0</v>
+        <v>5.3</v>
       </c>
       <c r="M26" t="n">
         <v>2.0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O26" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P26" t="n">
         <v>2.0</v>
@@ -3244,43 +3256,43 @@
         <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="V26" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="X26" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.19</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="27">
@@ -3288,100 +3300,100 @@
         <v>57</v>
       </c>
       <c r="B27" t="n">
-        <v>381.0</v>
+        <v>372.0</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="I27" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.0</v>
       </c>
-      <c r="K27" t="n">
-        <v>540.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Z27" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.0</v>
+        <v>0.37</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.0</v>
+        <v>0.37</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28">
@@ -3389,37 +3401,37 @@
         <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>395.0</v>
+        <v>394.0</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="K28" t="n">
-        <v>18.0</v>
+        <v>720.0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2</v>
+        <v>8.0</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
@@ -3452,19 +3464,19 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z28" t="n">
         <v>0.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" t="n">
         <v>0.0</v>
@@ -3482,7 +3494,7 @@
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29">
@@ -3490,37 +3502,37 @@
         <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>494.0</v>
+        <v>408.0</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="J29" t="n">
         <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.0</v>
+        <v>46.0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="M29" t="n">
         <v>0.0</v>
@@ -3547,25 +3559,25 @@
         <v>0.0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB29" t="n">
         <v>0.0</v>
@@ -3583,7 +3595,7 @@
         <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="30">
@@ -3591,49 +3603,49 @@
         <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0</v>
+        <v>510.0</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" t="s">
         <v>139</v>
       </c>
       <c r="G30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H30" t="s">
         <v>185</v>
       </c>
       <c r="I30" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="J30" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>382.0</v>
+        <v>1.0</v>
       </c>
       <c r="L30" t="n">
-        <v>4.2</v>
+        <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" t="n">
         <v>0.0</v>
@@ -3648,43 +3660,43 @@
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.4</v>
+        <v>0.0</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="X30" t="n">
-        <v>2.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.47</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.24</v>
+        <v>0.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.71</v>
+        <v>0.0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.47</v>
+        <v>0.0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.71</v>
+        <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -3692,13 +3704,13 @@
         <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>29.0</v>
+        <v>536.0</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
         <v>134</v>
@@ -3707,22 +3719,22 @@
         <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J31" t="n">
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
@@ -3749,25 +3761,25 @@
         <v>0.0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W31" t="n">
         <v>0.0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB31" t="n">
         <v>0.0</v>
@@ -3785,7 +3797,7 @@
         <v>0.0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -3793,49 +3805,49 @@
         <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>82.0</v>
+        <v>1.0</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H32" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I32" t="s">
         <v>197</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="K32" t="n">
-        <v>29.0</v>
+        <v>562.0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3</v>
+        <v>6.2</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0</v>
@@ -3850,43 +3862,43 @@
         <v>0.0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0</v>
+        <v>1.6</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>1.6</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>3.0</v>
+        <v>37.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0</v>
+        <v>0.32</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.0</v>
+        <v>0.48</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.0</v>
+        <v>0.32</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.0</v>
+        <v>0.48</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33">
@@ -3894,37 +3906,37 @@
         <v>63</v>
       </c>
       <c r="B33" t="n">
-        <v>187.0</v>
+        <v>31.0</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="J33" t="n">
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>1.0</v>
+        <v>44.0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
@@ -3951,16 +3963,16 @@
         <v>0.0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W33" t="n">
         <v>0.0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y33" t="n">
         <v>0.0</v>
@@ -3969,7 +3981,7 @@
         <v>0.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB33" t="n">
         <v>0.0</v>
@@ -3987,7 +3999,7 @@
         <v>0.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34">
@@ -3995,100 +4007,100 @@
         <v>64</v>
       </c>
       <c r="B34" t="n">
-        <v>258.0</v>
+        <v>85.0</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H34" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I34" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J34" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>503.0</v>
+        <v>46.0</v>
       </c>
       <c r="L34" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA34" t="n">
         <v>3.0</v>
       </c>
-      <c r="O34" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X34" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>22.0</v>
-      </c>
       <c r="AB34" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.54</v>
+        <v>0.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.72</v>
+        <v>0.0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.72</v>
+        <v>0.0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.31</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -4096,37 +4108,37 @@
         <v>65</v>
       </c>
       <c r="B35" t="n">
-        <v>322.0</v>
+        <v>195.0</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I35" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="J35" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>540.0</v>
+        <v>10.0</v>
       </c>
       <c r="L35" t="n">
-        <v>6.0</v>
+        <v>0.1</v>
       </c>
       <c r="M35" t="n">
         <v>0.0</v>
@@ -4171,7 +4183,7 @@
         <v>0.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB35" t="n">
         <v>0.0</v>
@@ -4197,49 +4209,49 @@
         <v>66</v>
       </c>
       <c r="B36" t="n">
-        <v>389.0</v>
+        <v>267.0</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H36" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I36" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J36" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="K36" t="n">
-        <v>136.0</v>
+        <v>655.0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="M36" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N36" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O36" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q36" t="n">
         <v>0.0</v>
@@ -4254,43 +4266,43 @@
         <v>0.0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="V36" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="X36" t="n">
-        <v>1.0</v>
+        <v>3.1</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.32</v>
+        <v>0.14</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.99</v>
+        <v>0.55</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.32</v>
+        <v>0.14</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.99</v>
+        <v>0.55</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="37">
@@ -4298,49 +4310,49 @@
         <v>67</v>
       </c>
       <c r="B37" t="n">
-        <v>402.0</v>
+        <v>333.0</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J37" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="K37" t="n">
-        <v>113.0</v>
+        <v>720.0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>8.0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" t="n">
         <v>0.0</v>
@@ -4355,43 +4367,43 @@
         <v>0.0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="W37" t="n">
         <v>0.0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.72</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -4399,49 +4411,49 @@
         <v>68</v>
       </c>
       <c r="B38" t="n">
-        <v>420.0</v>
+        <v>402.0</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H38" t="s">
         <v>191</v>
       </c>
       <c r="I38" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K38" t="n">
-        <v>78.0</v>
+        <v>177.0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9</v>
+        <v>2.0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q38" t="n">
         <v>0.0</v>
@@ -4456,43 +4468,43 @@
         <v>0.0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0</v>
+        <v>1.6</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0</v>
+        <v>1.6</v>
       </c>
       <c r="W38" t="n">
         <v>0.1</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0</v>
+        <v>1.53</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0</v>
+        <v>0.51</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0</v>
+        <v>2.03</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0</v>
+        <v>1.53</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.0</v>
+        <v>2.03</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.0</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="39">
@@ -4500,49 +4512,49 @@
         <v>69</v>
       </c>
       <c r="B39" t="n">
-        <v>424.0</v>
+        <v>415.0</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H39" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="J39" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K39" t="n">
-        <v>90.0</v>
+        <v>252.0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.0</v>
+        <v>2.8</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N39" t="n">
         <v>1.0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q39" t="n">
         <v>0.0</v>
@@ -4557,43 +4569,43 @@
         <v>0.0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="W39" t="n">
         <v>0.3</v>
       </c>
       <c r="X39" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0</v>
+        <v>0.71</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.0</v>
+        <v>0.36</v>
       </c>
       <c r="AD39" t="n">
-        <v>1.0</v>
+        <v>1.07</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.0</v>
+        <v>0.71</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.0</v>
+        <v>1.07</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.14</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="40">
@@ -4601,46 +4613,46 @@
         <v>70</v>
       </c>
       <c r="B40" t="n">
-        <v>437.0</v>
+        <v>438.0</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H40" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.0</v>
+        <v>90.0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M40" t="n">
         <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P40" t="n">
         <v>0.0</v>
@@ -4658,43 +4670,43 @@
         <v>0.0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB40" t="n">
         <v>0.0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE40" t="n">
         <v>0.0</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="41">
@@ -4702,46 +4714,46 @@
         <v>71</v>
       </c>
       <c r="B41" t="n">
-        <v>459.0</v>
+        <v>451.0</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
         <v>134</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I41" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>150.0</v>
+        <v>9.0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="M41" t="n">
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P41" t="n">
         <v>0.0</v>
@@ -4759,43 +4771,43 @@
         <v>0.0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" t="n">
         <v>0.0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="AE41" t="n">
         <v>0.0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.09</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -4803,100 +4815,201 @@
         <v>72</v>
       </c>
       <c r="B42" t="n">
-        <v>475.0</v>
+        <v>474.0</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I42" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K42" t="n">
-        <v>11.0</v>
+        <v>150.0</v>
       </c>
       <c r="L42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" t="s">
+        <v>192</v>
+      </c>
+      <c r="I43" t="s">
+        <v>201</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U43" t="n">
         <v>0.1</v>
       </c>
-      <c r="M42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z42" t="n">
+      <c r="V43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA43" t="n">
         <v>3.0</v>
       </c>
-      <c r="AA42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0.0</v>
+      <c r="AB43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
